--- a/biology/Zoologie/Alexanor/Alexanor.xlsx
+++ b/biology/Zoologie/Alexanor/Alexanor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Papilio alexanor
 L'Alexanor ou Grand Sélésier, Papilio alexanor, est une espèce d'insectes lépidoptères (papillons) qui appartient à la famille des Papilionidae, à la sous-famille des Papilioninae et au genre Papilio.
@@ -512,12 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alexanor est un grand papillon de forme vaguement triangulaire possédant une queue, d'une envergure de 30 à 40 mm et reconnaissable à ses grands vols planés.
 Sur un fond jaune il présente des dessins noirs. Les ailes bordées de noir présentent une bande jaune doublée d'une large bande bleue.
-Chenille et chrysalide
-Les œufs sont pondus isolément sur les plantes hôtes et l'éclosion s'effectue environ une semaine après la ponte. Le développement larvaire dure à peu près un mois.
 </t>
         </is>
       </c>
@@ -543,16 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Alexanor hiverne à l’état de chrysalide.
-Il vole d'avril à juillet en une seule génération.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des apiacées (ombellifères) et notamment Seseli montanum, Trinia vulgaris, Ptychotis saxifraga, Opopanax chironium.
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus isolément sur les plantes hôtes et l'éclosion s'effectue environ une semaine après la ponte. Le développement larvaire dure à peu près un mois.
 </t>
         </is>
       </c>
@@ -578,17 +592,164 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alexanor hiverne à l’état de chrysalide.
+Il vole d'avril à juillet en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des apiacées (ombellifères) et notamment Seseli montanum, Trinia vulgaris, Ptychotis saxifraga, Opopanax chironium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alexanor est présent en Asie mineure, dans le sud des Balkans et l'ouest de l'Asie et dans de rares secteurs du sud-est de l'Europe, Sicile et sud de l'Italie, côte adriatique de la Slovénie à la Grèce.
-En France métropolitaine l'Alexanor est présent dans sept départements du Sud-Est : Isère, Drôme, Var, Vaucluse, Hautes-Alpes, Alpes-de-Haute-Provence, Alpes-Maritimes. Signalé dans le Gard. Signalé de la montagne Sainte-Victoire, en 1950. Quelques populations isolées dans le sud-ouest du Var ont été décrites comme ssp destelensis, taxon endémique de la région PACA[1]. Il est également présent dans les Hautes-Alpes où subsistent encore de belles populations. En Ardèche il n'a pas été retrouvé depuis 1980[2].
-Biotope
-Il fréquente les milieux ouverts xériques, les versants rocailleux calcaires ensoleillés, les prairies fleuries des massifs peu élevés des régions montagneuses mais aussi ponctuellement les bancs de graviers exondés de certaines rivières du bassin versant de la Durance. Il vole entre 150 et 1 600 m d'altitude.
-Menaces
-L'urbanisation, le dérèglement climatique et l'abandon des cultures et des techniques pastorales traditionnelles ont bouleversé les biotopes abritant l'alexanor et conduit à la disparition de nombreuses stations au cours des trente dernières années.
+En France métropolitaine l'Alexanor est présent dans sept départements du Sud-Est : Isère, Drôme, Var, Vaucluse, Hautes-Alpes, Alpes-de-Haute-Provence, Alpes-Maritimes. Signalé dans le Gard. Signalé de la montagne Sainte-Victoire, en 1950. Quelques populations isolées dans le sud-ouest du Var ont été décrites comme ssp destelensis, taxon endémique de la région PACA. Il est également présent dans les Hautes-Alpes où subsistent encore de belles populations. En Ardèche il n'a pas été retrouvé depuis 1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les milieux ouverts xériques, les versants rocailleux calcaires ensoleillés, les prairies fleuries des massifs peu élevés des régions montagneuses mais aussi ponctuellement les bancs de graviers exondés de certaines rivières du bassin versant de la Durance. Il vole entre 150 et 1 600 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'urbanisation, le dérèglement climatique et l'abandon des cultures et des techniques pastorales traditionnelles ont bouleversé les biotopes abritant l'alexanor et conduit à la disparition de nombreuses stations au cours des trente dernières années.
 Les biotopes de P. alexanor sont en effet particulièrement vulnérables compte tenu notamment des exigences de sa principale plante hôte (Ptychotis).
 En outre, la mauvaise gestion des milieux ouverts est également en cause. Le reboisement intempestif des parcelles (notamment en résineux) a entraîné la réduction de plusieurs biotopes dans le massif du Lubéron.
 Dans le Var, la sous-espèce Papilio alexanor destelensis est vraisemblablement au bord de l'extinction. Cependant, l'absence de prospections récentes, spécialement hors des stations connues (ou de publications relatives à celles-ci), oblige à rester prudent quant au statut de cette sous-espèce.
@@ -599,80 +760,225 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alexanor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Papilio alexanor a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1799[3].
-La localité type est la région de Nice.
-Synonyme
-Papilio polidamas  Prunner, 1798 [4]
-Noms vernaculaires
-L'Alexanor ou Grand Sélésier se nomme Alexanor-Schwalbenschwanz en allemand, Alexanor en anglais et Zuidelijke koninginnenpage en néerlandais[5].
-Taxinomie
-Liste des sous-espèces
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'espèce Papilio alexanor a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1799.
+La localité type est la région de Nice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio polidamas  Prunner, 1798 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alexanor ou Grand Sélésier se nomme Alexanor-Schwalbenschwanz en allemand, Alexanor en anglais et Zuidelijke koninginnenpage en néerlandais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Papilio alexanor destelensis (Nel &amp; Chauliac, 1983)
 Papilio alexanor hazarajatica (Wyatt, 1961)
 Papilio alexanor judeus (Staudinger, 1893)
 Papilio alexanor orientalis (Romanov, 1884)
 Papilio alexanor radighierii (Sala &amp; Bollino, 1991)
-Papilio alexanor voldemar (Kreuzberg, 1989)[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alexanor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Papilio alexanor voldemar (Kreuzberg, 1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>L'Alexanor et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-L'Alexanor est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne[7].
-Cette espèce est aussi inscrite sur la liste des insectes strictement protégés de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992 et en France sur la liste rouge des insectes de France métropolitaine (arrêté du 23 avril 2007 abrogeant l'arrêté du 22 juillet 1993 fixant la liste des insectes protégés sur le territoire français métropolitain)[8].
-Philatélie
-Papilio alexanor figure sur une émission de la poste d'union soviétique de 1987 et de la poste d'Azerbaïdjan. Il est aussi représenté sur une plante Myrrhis odorata sur le timbre postal de Monaco no 1424 (du catalogue 1bis Yvert et Tellier) de l'année 1984 dans la série « papillons et plantes du Parc national du Mercantour » en héliogravure dentelé 13, valeur faciale 3,60 francs.
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alexanor est inscrit sur la liste des insectes strictement protégés de l'annexe 2 de la Convention de Berne.
+Cette espèce est aussi inscrite sur la liste des insectes strictement protégés de l'annexe IV de la Directive Habitats du Conseil de l'Europe concernant la conservation des habitats naturels ainsi que de la faune et de la flore sauvages du 21 mai 1992 et en France sur la liste rouge des insectes de France métropolitaine (arrêté du 23 avril 2007 abrogeant l'arrêté du 22 juillet 1993 fixant la liste des insectes protégés sur le territoire français métropolitain).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alexanor</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexanor</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>L'Alexanor et l'Homme</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio alexanor figure sur une émission de la poste d'union soviétique de 1987 et de la poste d'Azerbaïdjan. Il est aussi représenté sur une plante Myrrhis odorata sur le timbre postal de Monaco no 1424 (du catalogue 1bis Yvert et Tellier) de l'année 1984 dans la série « papillons et plantes du Parc national du Mercantour » en héliogravure dentelé 13, valeur faciale 3,60 francs.
 La sous-espèce Papilio alexanor judeus Staudinger, 1893 figure sur une émission d'Israël de 1965 (valeur faciale : 0,06 l).
 			Timbre-poste de l'Union soviétique
 			Timbre-poste de l'Azerbaïdjan
